--- a/FrontWebApp/src/assets/archivos/FormatoRecompensas.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoRecompensas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91072A3-36B5-47F2-BECC-4CFCB3F0D7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F55F87C-2C72-4F19-A3A7-21E1998599F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2160" windowWidth="20670" windowHeight="11385" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="3315" yWindow="2025" windowWidth="22755" windowHeight="11385" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>CANTIDAD DISPONIBLE*</t>
   </si>
   <si>
-    <t>CANTIDAD DE CANJE*</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>CRÉDITOS REQUERIDOS*</t>
   </si>
 </sst>
 </file>
@@ -168,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,14 +467,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -487,24 +486,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
